--- a/docs/extension-blah.xlsx
+++ b/docs/extension-blah.xlsx
@@ -225,7 +225,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/ig-sampler/StructureDefinition/extension-blah"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/sampler2/StructureDefinition/extension-blah"/&gt;</t>
   </si>
   <si>
     <t>N/A</t>
